--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>98,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,19; 8,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 7,66</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 4,67</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 330,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,82; 159,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,85; 44,76</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 7,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 6,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,45; 94,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 72,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 81,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,44; 76,57</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,99; 73,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,63; 87,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; 72,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,67; 35,17</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 3,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 5,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 7,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 4,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,02; 119,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 66,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,25; 86,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,06; 48,29</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 11,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 7,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 10,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,51; 90,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 114,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,01; 82,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 83,74</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,88%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 10,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 5,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 5,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 0,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,12; 377,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; 62,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,94; 87,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,73; 1,15</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,08%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 3,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 44,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 112,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; 42,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,16; 48,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 453,42</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,11%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 5,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 5,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 5,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 118,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 99,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; 70,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 63,12</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 3,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 3,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 3,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 12,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 62,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 36,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 35,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,52; 109,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,67</t>
+          <t>-4,55; 5,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; 99,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 44,76</t>
+          <t>-28,05; 52,44</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>28,35%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,9</t>
+          <t>-0,57; 6,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 76,57</t>
+          <t>-5,44; 85,68</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,5</t>
+          <t>-4,29; 4,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 35,17</t>
+          <t>-24,64; 37,41</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-9,62%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,68</t>
+          <t>-1,96; 7,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,67</t>
+          <t>-7,52; 3,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 66,91</t>
+          <t>-14,62; 95,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 48,29</t>
+          <t>-49,51; 35,21</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>34,7%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 10,62</t>
+          <t>0,06; 10,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 83,74</t>
+          <t>0,33; 85,25</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,88%</t>
+          <t>-19,34%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 0,08</t>
+          <t>-10,24; 0,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 1,15</t>
+          <t>-41,34; 3,02</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>24,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>137,08%</t>
+          <t>227,56%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 44,08</t>
+          <t>2,3; 58,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 453,42</t>
+          <t>20,12; 620,79</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>56,49%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,11</t>
+          <t>0,52; 9,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 63,12</t>
+          <t>4,74; 259,74</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>62,01%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 12,79</t>
+          <t>1,55; 21,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,52; 109,18</t>
+          <t>12,9; 199,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,57</t>
+          <t>0,06; 7,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,41</t>
+          <t>-4,19; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,66</t>
+          <t>-1,83; 7,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,05</t>
+          <t>-4,35; 5,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 330,17</t>
+          <t>-9,6; 315,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 99,77</t>
+          <t>-38,92; 99,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 159,82</t>
+          <t>-23,13; 151,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 52,44</t>
+          <t>-27,38; 50,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,52</t>
+          <t>-2,1; 4,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,39</t>
+          <t>-2,17; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 6,76</t>
+          <t>-1,47; 6,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,23</t>
+          <t>-1,32; 5,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 94,13</t>
+          <t>-25,69; 84,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 72,57</t>
+          <t>-13,91; 73,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 81,18</t>
+          <t>-12,03; 80,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 85,68</t>
+          <t>-11,04; 77,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,32</t>
+          <t>-3,82; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,85</t>
+          <t>-2,97; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,74</t>
+          <t>-4,14; 6,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,77</t>
+          <t>-3,94; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 73,76</t>
+          <t>-39,04; 89,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 87,97</t>
+          <t>-23,7; 87,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 72,28</t>
+          <t>-28,51; 66,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 37,41</t>
+          <t>-21,48; 41,45</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,65</t>
+          <t>-2,69; 3,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,89</t>
+          <t>-2,49; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 7,41</t>
+          <t>-1,93; 7,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 3,47</t>
+          <t>-7,85; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 119,75</t>
+          <t>-46,4; 106,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 95,91</t>
+          <t>-20,34; 94,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 86,81</t>
+          <t>-16,34; 87,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 35,21</t>
+          <t>-51,85; 35,04</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 3,77</t>
+          <t>-6,14; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,65</t>
+          <t>-2,68; 12,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,43</t>
+          <t>-5,19; 7,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,85</t>
+          <t>-0,1; 11,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-65,51; 90,03</t>
+          <t>-62,35; 98,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 114,58</t>
+          <t>-16,21; 119,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 82,22</t>
+          <t>-33,92; 88,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 85,25</t>
+          <t>-0,43; 84,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,96</t>
+          <t>1,67; 10,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,98</t>
+          <t>-5,89; 5,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,54</t>
+          <t>-4,48; 5,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 0,47</t>
+          <t>-8,95; 1,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,12; 377,25</t>
+          <t>18,4; 330,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 62,32</t>
+          <t>-37,18; 58,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 87,3</t>
+          <t>-38,11; 87,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 3,02</t>
+          <t>-37,31; 7,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,83</t>
+          <t>-0,64; 5,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,73</t>
+          <t>-3,17; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,02</t>
+          <t>-3,22; 2,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 58,75</t>
+          <t>2,64; 53,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 112,13</t>
+          <t>-10,63; 107,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 42,03</t>
+          <t>-26,41; 42,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 48,12</t>
+          <t>-34,56; 46,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,12; 620,79</t>
+          <t>23,46; 594,02</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,62</t>
+          <t>0,32; 5,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,74</t>
+          <t>-0,06; 5,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,38</t>
+          <t>-0,88; 5,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 9,76</t>
+          <t>0,69; 9,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 118,11</t>
+          <t>4,1; 118,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 99,75</t>
+          <t>-0,75; 107,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 70,87</t>
+          <t>-9,24; 69,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 259,74</t>
+          <t>5,6; 255,61</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,3</t>
+          <t>0,92; 3,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,58</t>
+          <t>0,52; 3,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,11</t>
+          <t>0,16; 3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 21,76</t>
+          <t>1,51; 23,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,46; 62,23</t>
+          <t>14,64; 63,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 36,93</t>
+          <t>4,49; 37,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 35,1</t>
+          <t>1,61; 35,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,9; 199,87</t>
+          <t>12,59; 222,99</t>
         </is>
       </c>
     </row>
